--- a/data/sampledata.xlsx
+++ b/data/sampledata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70089004\R\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF8C6FB4-9780-4DA6-9419-8B8AB95CB5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD3E7ED-DFBB-4FD8-A2C8-A1677DF60DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75AAC33B-83EA-452E-81F0-CA779182C93C}"/>
   </bookViews>
@@ -288,15 +288,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Product Group</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>CSI85</t>
-  </si>
-  <si>
-    <t>Sales Value KRW</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Period</t>
@@ -592,6 +584,14 @@
   </si>
   <si>
     <t>Snack</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Va</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:CJ97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1591,13 +1591,13 @@
   <sheetData>
     <row r="1" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
@@ -1852,15 +1852,15 @@
         <v>82</v>
       </c>
       <c r="CJ1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2">
         <v>1743</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2">
         <v>1213</v>
@@ -2389,10 +2389,10 @@
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2">
         <v>1156</v>
@@ -2655,10 +2655,10 @@
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2">
         <v>1147</v>
@@ -2921,10 +2921,10 @@
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2">
         <v>1523</v>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2">
         <v>2276</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2">
         <v>2271</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C9" s="2">
         <v>1857</v>
@@ -3985,10 +3985,10 @@
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="2">
         <v>2207</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="11" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2">
         <v>1294</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="12" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C12" s="2">
         <v>1635</v>
@@ -4783,10 +4783,10 @@
     </row>
     <row r="13" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C13" s="2">
         <v>2162</v>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="14" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2">
         <v>1459</v>
@@ -5315,10 +5315,10 @@
     </row>
     <row r="15" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2">
         <v>1215</v>
@@ -5581,10 +5581,10 @@
     </row>
     <row r="16" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2">
         <v>1134</v>
@@ -5847,10 +5847,10 @@
     </row>
     <row r="17" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2">
         <v>1720</v>
@@ -6113,10 +6113,10 @@
     </row>
     <row r="18" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2">
         <v>1085</v>
@@ -6379,10 +6379,10 @@
     </row>
     <row r="19" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2">
         <v>1988</v>
@@ -6645,10 +6645,10 @@
     </row>
     <row r="20" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2">
         <v>1509</v>
@@ -6911,10 +6911,10 @@
     </row>
     <row r="21" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C21" s="2">
         <v>1196</v>
@@ -7177,10 +7177,10 @@
     </row>
     <row r="22" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2">
         <v>1487</v>
@@ -7443,10 +7443,10 @@
     </row>
     <row r="23" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C23" s="2">
         <v>1855</v>
@@ -7709,10 +7709,10 @@
     </row>
     <row r="24" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" s="2">
         <v>2112</v>
@@ -7975,10 +7975,10 @@
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2">
         <v>1569</v>
@@ -8241,10 +8241,10 @@
     </row>
     <row r="26" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" s="2">
         <v>2091</v>
@@ -8507,10 +8507,10 @@
     </row>
     <row r="27" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C27" s="2">
         <v>2039</v>
@@ -8773,10 +8773,10 @@
     </row>
     <row r="28" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C28" s="2">
         <v>2255</v>
@@ -9039,10 +9039,10 @@
     </row>
     <row r="29" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C29" s="2">
         <v>1728</v>
@@ -9305,10 +9305,10 @@
     </row>
     <row r="30" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C30" s="2">
         <v>1354</v>
@@ -9571,10 +9571,10 @@
     </row>
     <row r="31" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C31" s="2">
         <v>1796</v>
@@ -9837,10 +9837,10 @@
     </row>
     <row r="32" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C32" s="2">
         <v>1375</v>
@@ -10103,10 +10103,10 @@
     </row>
     <row r="33" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C33" s="2">
         <v>1036</v>
@@ -10369,10 +10369,10 @@
     </row>
     <row r="34" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C34" s="2">
         <v>1569</v>
@@ -10635,10 +10635,10 @@
     </row>
     <row r="35" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C35" s="2">
         <v>1039</v>
@@ -10901,10 +10901,10 @@
     </row>
     <row r="36" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C36" s="2">
         <v>1430</v>
@@ -11167,10 +11167,10 @@
     </row>
     <row r="37" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C37" s="2">
         <v>1761</v>
@@ -11433,10 +11433,10 @@
     </row>
     <row r="38" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C38" s="2">
         <v>2293</v>
@@ -11699,10 +11699,10 @@
     </row>
     <row r="39" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C39" s="2">
         <v>1117</v>
@@ -11965,10 +11965,10 @@
     </row>
     <row r="40" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C40" s="2">
         <v>1259</v>
@@ -12231,10 +12231,10 @@
     </row>
     <row r="41" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C41" s="2">
         <v>1372</v>
@@ -12497,10 +12497,10 @@
     </row>
     <row r="42" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C42" s="2">
         <v>1425</v>
@@ -12763,10 +12763,10 @@
     </row>
     <row r="43" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C43" s="2">
         <v>2083</v>
@@ -13029,10 +13029,10 @@
     </row>
     <row r="44" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2">
         <v>1743</v>
@@ -13295,10 +13295,10 @@
     </row>
     <row r="45" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C45" s="2">
         <v>1799</v>
@@ -13561,10 +13561,10 @@
     </row>
     <row r="46" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C46" s="2">
         <v>1111</v>
@@ -13827,10 +13827,10 @@
     </row>
     <row r="47" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C47" s="2">
         <v>2259</v>
@@ -14093,10 +14093,10 @@
     </row>
     <row r="48" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C48" s="2">
         <v>1658</v>
@@ -14359,10 +14359,10 @@
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C49" s="2">
         <v>1536</v>
@@ -14625,10 +14625,10 @@
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C50" s="2">
         <v>1076</v>
@@ -14891,10 +14891,10 @@
     </row>
     <row r="51" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C51" s="2">
         <v>1800</v>
@@ -15157,10 +15157,10 @@
     </row>
     <row r="52" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C52" s="2">
         <v>1867</v>
@@ -15423,10 +15423,10 @@
     </row>
     <row r="53" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C53" s="2">
         <v>2177</v>
@@ -15689,10 +15689,10 @@
     </row>
     <row r="54" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C54" s="2">
         <v>2169</v>
@@ -15955,10 +15955,10 @@
     </row>
     <row r="55" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C55" s="2">
         <v>1007</v>
@@ -16221,10 +16221,10 @@
     </row>
     <row r="56" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C56" s="2">
         <v>2064</v>
@@ -16487,10 +16487,10 @@
     </row>
     <row r="57" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C57" s="2">
         <v>1162</v>
@@ -16753,10 +16753,10 @@
     </row>
     <row r="58" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C58" s="2">
         <v>1503</v>
@@ -17019,10 +17019,10 @@
     </row>
     <row r="59" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C59" s="2">
         <v>1759</v>
@@ -17285,10 +17285,10 @@
     </row>
     <row r="60" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C60" s="2">
         <v>1158</v>
@@ -17551,10 +17551,10 @@
     </row>
     <row r="61" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C61" s="2">
         <v>1527</v>
@@ -17817,10 +17817,10 @@
     </row>
     <row r="62" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C62" s="2">
         <v>2008</v>
@@ -18083,10 +18083,10 @@
     </row>
     <row r="63" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C63" s="2">
         <v>2226</v>
@@ -18349,10 +18349,10 @@
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C64" s="2">
         <v>2246</v>
@@ -18615,10 +18615,10 @@
     </row>
     <row r="65" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C65" s="2">
         <v>1149</v>
@@ -18881,10 +18881,10 @@
     </row>
     <row r="66" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C66" s="2">
         <v>2215</v>
@@ -19147,10 +19147,10 @@
     </row>
     <row r="67" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C67" s="2">
         <v>2237</v>
@@ -19413,10 +19413,10 @@
     </row>
     <row r="68" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C68" s="2">
         <v>1679</v>
@@ -19679,10 +19679,10 @@
     </row>
     <row r="69" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C69" s="2">
         <v>1741</v>
@@ -19945,10 +19945,10 @@
     </row>
     <row r="70" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C70" s="2">
         <v>1636</v>
@@ -20211,10 +20211,10 @@
     </row>
     <row r="71" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C71" s="2">
         <v>1830</v>
@@ -20477,10 +20477,10 @@
     </row>
     <row r="72" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C72" s="2">
         <v>1004</v>
@@ -20743,10 +20743,10 @@
     </row>
     <row r="73" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C73" s="2">
         <v>1981</v>
@@ -21009,10 +21009,10 @@
     </row>
     <row r="74" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C74" s="2">
         <v>2229</v>
@@ -21275,10 +21275,10 @@
     </row>
     <row r="75" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C75" s="2">
         <v>2005</v>
@@ -21541,10 +21541,10 @@
     </row>
     <row r="76" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C76" s="2">
         <v>1045</v>
@@ -21807,10 +21807,10 @@
     </row>
     <row r="77" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C77" s="2">
         <v>1471</v>
@@ -22073,10 +22073,10 @@
     </row>
     <row r="78" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C78" s="2">
         <v>1224</v>
@@ -22339,10 +22339,10 @@
     </row>
     <row r="79" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C79" s="2">
         <v>1818</v>
@@ -22605,10 +22605,10 @@
     </row>
     <row r="80" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C80" s="2">
         <v>2123</v>
@@ -22871,10 +22871,10 @@
     </row>
     <row r="81" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C81" s="2">
         <v>1685</v>
@@ -23137,10 +23137,10 @@
     </row>
     <row r="82" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C82" s="2">
         <v>2145</v>
@@ -23403,10 +23403,10 @@
     </row>
     <row r="83" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C83" s="2">
         <v>1611</v>
@@ -23669,10 +23669,10 @@
     </row>
     <row r="84" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C84" s="2">
         <v>1658</v>
@@ -23935,10 +23935,10 @@
     </row>
     <row r="85" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C85" s="2">
         <v>1220</v>
@@ -24201,10 +24201,10 @@
     </row>
     <row r="86" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C86" s="2">
         <v>1052</v>
@@ -24467,10 +24467,10 @@
     </row>
     <row r="87" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C87" s="2">
         <v>1068</v>
@@ -24733,10 +24733,10 @@
     </row>
     <row r="88" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C88" s="2">
         <v>2233</v>
@@ -24999,10 +24999,10 @@
     </row>
     <row r="89" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C89" s="2">
         <v>1913</v>
@@ -25265,10 +25265,10 @@
     </row>
     <row r="90" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C90" s="2">
         <v>2282</v>
@@ -25531,10 +25531,10 @@
     </row>
     <row r="91" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C91" s="2">
         <v>1936</v>
@@ -25797,10 +25797,10 @@
     </row>
     <row r="92" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C92" s="2">
         <v>2235</v>
@@ -26063,10 +26063,10 @@
     </row>
     <row r="93" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C93" s="2">
         <v>1011</v>
@@ -26329,10 +26329,10 @@
     </row>
     <row r="94" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C94" s="2">
         <v>1180</v>
@@ -26595,10 +26595,10 @@
     </row>
     <row r="95" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C95" s="2">
         <v>1900</v>
@@ -26861,10 +26861,10 @@
     </row>
     <row r="96" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" t="s">
         <v>182</v>
-      </c>
-      <c r="B96" t="s">
-        <v>184</v>
       </c>
       <c r="C96" s="2">
         <v>1501</v>
@@ -27127,10 +27127,10 @@
     </row>
     <row r="97" spans="1:88" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C97" s="2">
         <v>1220</v>
